--- a/Convoy Manifest Personnel Upload.xlsx
+++ b/Convoy Manifest Personnel Upload.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0e68c24dee93cc5/MCLOG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73BA8448-290E-4C25-B065-A5B41D52978B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{8CC12137-8B39-45C2-9584-8EA0CF119C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9A68688-00A5-4147-AB8F-6BCB3A2B5DAC}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{1850C34C-0C71-4D7A-BBE8-73699B67BB98}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="5" xr2:uid="{1850C34C-0C71-4D7A-BBE8-73699B67BB98}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Personnel" sheetId="1" r:id="rId1"/>
+    <sheet name="Vehicles" sheetId="2" r:id="rId2"/>
+    <sheet name="Radio" sheetId="3" r:id="rId3"/>
+    <sheet name="Water Containers" sheetId="4" r:id="rId4"/>
+    <sheet name="Fuel Containers" sheetId="5" r:id="rId5"/>
+    <sheet name="Weapon Systems" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
   <si>
     <t>Rank</t>
   </si>
@@ -148,6 +153,351 @@
   </si>
   <si>
     <t>O-</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>TAMCN</t>
+  </si>
+  <si>
+    <t>Vehicle Description</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>MK25</t>
+  </si>
+  <si>
+    <t>MK29</t>
+  </si>
+  <si>
+    <t>MK31</t>
+  </si>
+  <si>
+    <t>MK27 or MK28 (Troop Carrier Variants)</t>
+  </si>
+  <si>
+    <t>MK31 (Tractor Variant)</t>
+  </si>
+  <si>
+    <t>MK36 Wrecker</t>
+  </si>
+  <si>
+    <t>M1102 (or LTT Trailer Series)</t>
+  </si>
+  <si>
+    <t>M1152 HMMWV</t>
+  </si>
+  <si>
+    <t>JLTV Ambulance Variant</t>
+  </si>
+  <si>
+    <t>JLTV GP</t>
+  </si>
+  <si>
+    <t>MK23</t>
+  </si>
+  <si>
+    <t>JLTV Utility Variant</t>
+  </si>
+  <si>
+    <t>MKR18 Cargo</t>
+  </si>
+  <si>
+    <t>MKR16 Tractor</t>
+  </si>
+  <si>
+    <t>MKR15 Wrecker</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>D0003</t>
+  </si>
+  <si>
+    <t>TRUCK ARMORED CARGO 7 TON W/O WINCH NON-REDUCIBLE W/DFCS</t>
+  </si>
+  <si>
+    <t>D0005</t>
+  </si>
+  <si>
+    <t>TRUCK ARMORED XLWB CARGO 7 TON W/O WINCH NON REDUCIBLE</t>
+  </si>
+  <si>
+    <t>D0007</t>
+  </si>
+  <si>
+    <t>TRUCK ARMORED DUMP 7-TON W/O WINCH NON-REDUCIBLE</t>
+  </si>
+  <si>
+    <t>D0009</t>
+  </si>
+  <si>
+    <t>TRUCK TRACTOR</t>
+  </si>
+  <si>
+    <t>D0011</t>
+  </si>
+  <si>
+    <t>CARRIER TROOP ARMORED MTVR</t>
+  </si>
+  <si>
+    <t>D0013</t>
+  </si>
+  <si>
+    <t>TRUCK ARMORED TRACTOR 7 TON W/O WINCH REDUCIBLE</t>
+  </si>
+  <si>
+    <t>D0015</t>
+  </si>
+  <si>
+    <t>TRUCK ARMORED WRECKER 7 TON W/WINCH REDUCIBLE</t>
+  </si>
+  <si>
+    <t>D0016</t>
+  </si>
+  <si>
+    <t>TRAILER CARGO (LTT-H)</t>
+  </si>
+  <si>
+    <t>D0022</t>
+  </si>
+  <si>
+    <t>TRUCK UTILITY: EXPANDED CAPACITY ENHANCED11500 GVW 4X4 M1152 2 DOOR</t>
+  </si>
+  <si>
+    <t>D0026</t>
+  </si>
+  <si>
+    <t>JLTV SHELTER AMBULANCE</t>
+  </si>
+  <si>
+    <t>D0045</t>
+  </si>
+  <si>
+    <t>GENERAL PURPOSE JOINT LIGHT TACTICAL VEHICLE (JLTV)</t>
+  </si>
+  <si>
+    <t>JLTV Heavy Guns Carrier Variant</t>
+  </si>
+  <si>
+    <t>D0046</t>
+  </si>
+  <si>
+    <t>HVY GUNS CARRIER JLTV</t>
+  </si>
+  <si>
+    <t>D0048</t>
+  </si>
+  <si>
+    <t>UTILITY JLTV</t>
+  </si>
+  <si>
+    <t>D0052</t>
+  </si>
+  <si>
+    <t>LVSR ARMORED CARGO VARIANT</t>
+  </si>
+  <si>
+    <t>D0053</t>
+  </si>
+  <si>
+    <t>LVSR ARMORED TRACTOR VARIANT</t>
+  </si>
+  <si>
+    <t>D0054</t>
+  </si>
+  <si>
+    <t>LVSR ARMORED WRECKER VARIANT</t>
+  </si>
+  <si>
+    <t>M998 or M1151 HMMWV</t>
+  </si>
+  <si>
+    <t>D0187</t>
+  </si>
+  <si>
+    <t>TRK UTIL HVY 2 1/4T HMMWV</t>
+  </si>
+  <si>
+    <t>D0198</t>
+  </si>
+  <si>
+    <t>TRUCK CARGO 7 TON W/O WINCH</t>
+  </si>
+  <si>
+    <t>D0886</t>
+  </si>
+  <si>
+    <t>TRUCK CARGO 22.5 TON 10X10 (LVSR)</t>
+  </si>
+  <si>
+    <t>D0887</t>
+  </si>
+  <si>
+    <t>TRUCK TRACTOR 10X10 (LVSR)</t>
+  </si>
+  <si>
+    <t>M997 (Armored Ambulance)</t>
+  </si>
+  <si>
+    <t>D1001</t>
+  </si>
+  <si>
+    <t>TRK AMBUL 4-LTR ARMD 2 1/4T HMMWV</t>
+  </si>
+  <si>
+    <t>M1035 (Soft Top Ambulance)</t>
+  </si>
+  <si>
+    <t>D1002</t>
+  </si>
+  <si>
+    <t>TRK AMBUL 2-LTR SOFT TOP 2 1/4T HMMWV</t>
+  </si>
+  <si>
+    <t>MK28</t>
+  </si>
+  <si>
+    <t>D1062</t>
+  </si>
+  <si>
+    <t>TRUCK CARGO 7 TON XLWB W/ WINCH</t>
+  </si>
+  <si>
+    <t>MK30</t>
+  </si>
+  <si>
+    <t>D1073</t>
+  </si>
+  <si>
+    <t>TRUCK DUMP 7 TON W/O WINCH</t>
+  </si>
+  <si>
+    <t>M1097 or M1152 HMMWV</t>
+  </si>
+  <si>
+    <t>D1158</t>
+  </si>
+  <si>
+    <t>TRK UTIL CARGO/TRP CARR 1 1/4T W/EQP HMMWV</t>
+  </si>
+  <si>
+    <t>D1214</t>
+  </si>
+  <si>
+    <t>TRUCK WRECKER 10X10 (LVSR)</t>
+  </si>
+  <si>
+    <t>Radio Type</t>
+  </si>
+  <si>
+    <t>AN/PRC-117F</t>
+  </si>
+  <si>
+    <t>AN/PRC-117G</t>
+  </si>
+  <si>
+    <t>AN/PRC-148 (MBITR)</t>
+  </si>
+  <si>
+    <t>AN/PRC-150</t>
+  </si>
+  <si>
+    <t>AN/PRC-152</t>
+  </si>
+  <si>
+    <t>AN/PRC-154</t>
+  </si>
+  <si>
+    <t>AN/PRC-155</t>
+  </si>
+  <si>
+    <t>AN/PRC-163</t>
+  </si>
+  <si>
+    <t>(MIDS) JTRS</t>
+  </si>
+  <si>
+    <t>AN/PRC-119</t>
+  </si>
+  <si>
+    <t>AN/PRC-153 (IISR)</t>
+  </si>
+  <si>
+    <t>Container Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>B2086</t>
+  </si>
+  <si>
+    <t>SIXCON Water Storage Module</t>
+  </si>
+  <si>
+    <t>D0880</t>
+  </si>
+  <si>
+    <t>M149 Water Trailer ('Water Bull')</t>
+  </si>
+  <si>
+    <t>D0882</t>
+  </si>
+  <si>
+    <t>MTVR Water Trailer (MK149)</t>
+  </si>
+  <si>
+    <t>B2085</t>
+  </si>
+  <si>
+    <t>Fuel SIXCON</t>
+  </si>
+  <si>
+    <t>D0211</t>
+  </si>
+  <si>
+    <t>Flatrack Refueler</t>
+  </si>
+  <si>
+    <t>D0215</t>
+  </si>
+  <si>
+    <t>M970 Refueler</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>E0011</t>
+  </si>
+  <si>
+    <t>M2 .50 Caliber Machine Gun</t>
+  </si>
+  <si>
+    <t>M240G</t>
+  </si>
+  <si>
+    <t>E0178</t>
+  </si>
+  <si>
+    <t>M240G 7.62mm Medium Machine Gun</t>
+  </si>
+  <si>
+    <t>MK19</t>
+  </si>
+  <si>
+    <t>E0845</t>
+  </si>
+  <si>
+    <t>MK19 40mm Grenade Machine Gun</t>
   </si>
 </sst>
 </file>
@@ -501,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCE3D4C-B47D-45B5-A879-F750F57AB5AC}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -690,4 +1040,8860 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCA8ADD-6545-4DA9-87E0-3E60E8D8051F}">
+  <dimension ref="A1:O220"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" customWidth="1"/>
+    <col min="3" max="3" width="50.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="str">
+        <f>INDEX(N2:N27,MATCH(A2,M2:M27,0))</f>
+        <v>D0007</v>
+      </c>
+      <c r="C2" t="str">
+        <f>INDEX(O2:O27,MATCH(B2,N2:N27,0))</f>
+        <v>TRUCK ARMORED DUMP 7-TON W/O WINCH NON-REDUCIBLE</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">INDEX(N3:N28,MATCH(A3,M3:M28,0))</f>
+        <v>D0011</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="1">INDEX(O3:O28,MATCH(B3,N3:N28,0))</f>
+        <v>CARRIER TROOP ARMORED MTVR</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>D0015</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>TRUCK ARMORED WRECKER 7 TON W/WINCH REDUCIBLE</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>D0013</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>TRUCK ARMORED TRACTOR 7 TON W/O WINCH REDUCIBLE</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C6" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B8" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B12" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B13" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M13" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B14" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" t="s">
+        <v>95</v>
+      </c>
+      <c r="O18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" t="s">
+        <v>97</v>
+      </c>
+      <c r="O19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M20" t="s">
+        <v>57</v>
+      </c>
+      <c r="N20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M21" t="s">
+        <v>58</v>
+      </c>
+      <c r="N21" t="s">
+        <v>101</v>
+      </c>
+      <c r="O21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M22" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M23" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" t="s">
+        <v>107</v>
+      </c>
+      <c r="O23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" t="s">
+        <v>110</v>
+      </c>
+      <c r="O24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M25" t="s">
+        <v>112</v>
+      </c>
+      <c r="N25" t="s">
+        <v>113</v>
+      </c>
+      <c r="O25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C26" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M26" t="s">
+        <v>115</v>
+      </c>
+      <c r="N26" t="s">
+        <v>116</v>
+      </c>
+      <c r="O26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N27" t="s">
+        <v>118</v>
+      </c>
+      <c r="O27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C28" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C29" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C30" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C42" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C43" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C44" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C45" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C46" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C47" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C48" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C49" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C50" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C51" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C52" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C53" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C54" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C55" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C56" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B57" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C57" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B58" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C58" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B59" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C59" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B60" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C60" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B61" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C61" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B62" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C62" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B63" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C63" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B64" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C64" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B65" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C65" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B66" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C66" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B67" t="e">
+        <f t="shared" ref="B67:B130" si="2">INDEX(N67:N92,MATCH(A67,M67:M92,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C67" t="e">
+        <f t="shared" ref="C67:C130" si="3">INDEX(O67:O92,MATCH(B67,N67:N92,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B68" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C68" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B69" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C69" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B70" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C70" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B71" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C71" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B72" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C72" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B73" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C73" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B74" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C74" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B75" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C75" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C76" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B77" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C77" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B78" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C78" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B79" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C79" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B80" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C80" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B81" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C81" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B82" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C82" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B83" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C83" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C84" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B85" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C85" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B86" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C86" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B87" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C87" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B88" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C88" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B89" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C89" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C90" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B91" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C91" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B92" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C92" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B93" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C93" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B94" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C94" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B95" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C95" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B96" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C96" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B97" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C97" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B98" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C98" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B99" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C99" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B100" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C100" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B101" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C101" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B102" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C102" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B103" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C103" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B104" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C104" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B105" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C105" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B106" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C106" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B107" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C107" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B108" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C108" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B109" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C109" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B110" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C110" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B111" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C111" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B112" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C112" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B113" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C113" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B114" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C114" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B115" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C115" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B116" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C116" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B117" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C117" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B118" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C118" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B119" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C119" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B120" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C120" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B121" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C121" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B122" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C122" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B123" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C123" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B124" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C124" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C125" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B126" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C126" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B127" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C127" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B128" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C128" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B129" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C129" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B130" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C130" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B131" t="e">
+        <f t="shared" ref="B131:B194" si="4">INDEX(N131:N156,MATCH(A131,M131:M156,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C131" t="e">
+        <f t="shared" ref="C131:C194" si="5">INDEX(O131:O156,MATCH(B131,N131:N156,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B132" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C132" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B133" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C133" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B134" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C134" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B135" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C135" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B136" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C136" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B137" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C137" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B138" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C138" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B139" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C139" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B140" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C140" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B141" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C141" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B142" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C142" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B143" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C143" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B144" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C144" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B145" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C145" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B146" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C146" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B147" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C147" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B148" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C148" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B149" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C149" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B150" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C150" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B151" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C151" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B152" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C152" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B153" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C153" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B154" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C154" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B155" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C155" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B156" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C156" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B157" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C157" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B158" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C158" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B159" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C159" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B160" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C160" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B161" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C161" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B162" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C162" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B163" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C163" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B164" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C164" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B165" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C165" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B166" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C166" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B167" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C167" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B168" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C168" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B169" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C169" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B170" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C170" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B171" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C171" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B172" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C172" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B173" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C173" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B174" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C174" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B175" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C175" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B176" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C176" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B177" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C177" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B178" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C178" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B179" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C179" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B180" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C180" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B181" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C181" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B182" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C182" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B183" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C183" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B184" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C184" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B185" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C185" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B186" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C186" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B187" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C187" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B188" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C188" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B189" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C189" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B190" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C190" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B191" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C191" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B192" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C192" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B193" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C193" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B194" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C194" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B195" t="e">
+        <f t="shared" ref="B195:B220" si="6">INDEX(N195:N220,MATCH(A195,M195:M220,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C195" t="e">
+        <f t="shared" ref="C195:C220" si="7">INDEX(O195:O220,MATCH(B195,N195:N220,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B196" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C196" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B197" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C197" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B198" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C198" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B199" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C199" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B200" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C200" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B201" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C201" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B202" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C202" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B203" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C203" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B204" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C204" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B205" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C205" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B206" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C206" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B207" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C207" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B208" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C208" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B209" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C209" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B210" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C210" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B211" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C211" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B212" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C212" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B213" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C213" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B214" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C214" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B215" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C215" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B216" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C216" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B217" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C217" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B218" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C218" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B219" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C219" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B220" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C220" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A220" xr:uid="{B83DAA0A-D712-4CA8-93F6-C45F36F2686E}">
+      <formula1>$M$2:$M$27</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A08A634-3C93-4A8C-AA94-298F37A31838}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="M12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A200" xr:uid="{EA4FD89A-36DD-4970-9515-766DF3016D05}">
+      <formula1>$M$2:$M$12</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB28D80-57F2-404E-AA4D-AA0BD7C836BD}">
+  <dimension ref="A1:N415"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B2" t="e">
+        <f>INDEX(N2:N4,MATCH(A2,M2:M4,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B3" t="e">
+        <f>INDEX(N3:N5,MATCH(A3,M3:M5,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B4" t="e">
+        <f t="shared" ref="B4:B67" si="0">INDEX(N4:N6,MATCH(A4,M4:M6,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B8" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B12" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B13" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B14" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B39" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B40" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B41" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B42" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B44" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B45" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B46" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B47" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B48" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B50" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B51" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B52" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B53" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B54" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B55" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B56" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B57" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B58" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B59" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B60" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B61" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B62" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B63" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B64" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B65" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B66" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B67" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B68" t="e">
+        <f t="shared" ref="B68:B131" si="1">INDEX(N68:N70,MATCH(A68,M68:M70,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B69" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B70" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B71" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B72" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B73" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B74" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B75" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B76" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B77" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B78" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B79" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B80" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B81" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B82" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B83" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B84" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B85" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B86" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B87" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B88" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B89" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B90" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B91" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B92" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B93" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B94" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B95" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B96" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B97" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B98" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B99" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B100" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B101" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B102" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B103" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B104" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B105" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B106" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B107" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B108" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B109" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B110" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B111" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B112" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B113" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B114" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B115" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B116" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B117" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B118" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B119" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B120" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B121" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B122" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B123" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B124" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B125" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B126" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B127" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B128" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B129" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B130" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B131" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B132" t="e">
+        <f t="shared" ref="B132:B195" si="2">INDEX(N132:N134,MATCH(A132,M132:M134,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B133" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B134" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B135" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B136" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B137" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B138" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B139" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B140" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B141" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B142" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B143" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B144" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B145" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B146" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B147" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B148" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B149" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B150" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B151" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B152" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B153" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B154" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B155" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B156" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B157" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B158" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B159" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B160" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B161" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B162" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B163" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B164" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B165" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B166" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B167" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B168" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B169" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B170" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B171" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B172" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B173" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B174" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B175" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B176" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B177" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B178" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B179" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B180" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B181" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B182" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B183" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B184" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B185" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B186" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B187" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B188" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B189" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B190" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B191" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B192" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B193" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B194" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B195" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B196" t="e">
+        <f t="shared" ref="B196:B259" si="3">INDEX(N196:N198,MATCH(A196,M196:M198,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B197" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B198" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B199" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B200" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B201" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B202" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B203" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B204" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B205" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B206" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B207" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B208" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B209" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B210" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B211" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B212" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B213" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B214" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B215" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B216" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B217" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B218" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B219" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B220" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B221" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B222" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B223" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B224" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B225" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B226" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B227" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B228" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B229" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B230" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B231" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B232" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B233" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B234" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B235" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B236" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B237" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B238" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B239" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B240" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B241" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B242" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B243" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B244" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B245" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B246" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B247" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B248" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B249" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B250" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B251" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B252" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B253" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B254" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B255" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B256" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B257" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B258" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B259" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B260" t="e">
+        <f t="shared" ref="B260:B323" si="4">INDEX(N260:N262,MATCH(A260,M260:M262,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B261" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B262" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B263" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B264" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B265" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B266" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B267" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B268" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B269" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B270" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B271" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B272" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B273" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B274" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B275" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B276" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B277" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B278" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B279" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B280" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B281" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B282" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B283" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B284" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B285" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B286" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B287" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B288" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B289" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B290" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B291" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B292" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B293" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B294" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B295" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B296" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B297" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B298" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B299" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B300" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B301" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B302" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B303" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B304" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B305" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B306" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B307" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B308" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B309" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B310" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B311" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B312" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B313" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B314" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B315" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B316" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B317" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B318" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B319" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B320" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B321" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B322" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B323" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B324" t="e">
+        <f t="shared" ref="B324:B387" si="5">INDEX(N324:N326,MATCH(A324,M324:M326,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B325" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B326" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B327" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B328" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B329" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B330" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B331" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B332" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B333" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B334" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B335" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B336" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B337" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B338" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B339" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B340" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B341" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B342" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B343" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B344" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B345" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B346" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B347" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B348" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B349" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B350" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B351" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B352" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B353" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B354" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B355" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B356" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B357" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B358" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B359" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B360" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B361" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B362" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B363" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B364" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B365" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B366" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B367" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B368" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B369" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B370" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B371" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B372" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B373" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B374" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B375" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B376" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B377" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B378" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B379" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B380" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B381" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B382" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B383" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B384" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B385" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B386" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B387" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B388" t="e">
+        <f t="shared" ref="B388:B415" si="6">INDEX(N388:N390,MATCH(A388,M388:M390,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B389" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B390" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B391" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B392" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B393" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B394" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B395" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B396" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B397" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B398" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B399" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B400" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B401" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B402" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B403" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B404" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B405" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B406" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B407" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B408" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B409" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B410" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B411" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B412" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B413" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B414" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B415" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A220" xr:uid="{C991BB44-35D9-4BB6-8858-39DE407E9FFD}">
+      <formula1>$M$2:$M$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC663213-C847-4C08-AE7D-B96B864CB5D7}">
+  <dimension ref="A1:N270"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F265" sqref="F265"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="str">
+        <f>INDEX(N2:N4,MATCH(A2,M2:M4,0))</f>
+        <v>M970 Refueler</v>
+      </c>
+      <c r="M2" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B3" t="e">
+        <f t="shared" ref="B3:B66" si="0">INDEX(N3:N5,MATCH(A3,M3:M5,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B8" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B9" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B10" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B12" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B13" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B14" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B15" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B16" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B39" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B40" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B41" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B42" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B44" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B45" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B46" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B47" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B48" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B49" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B50" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B51" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B52" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B53" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B54" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B55" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B56" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B57" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B58" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B59" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B60" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B61" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B62" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B63" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B64" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B65" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B66" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B67" t="e">
+        <f t="shared" ref="B67:B130" si="1">INDEX(N67:N69,MATCH(A67,M67:M69,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B68" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B69" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B70" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B71" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B72" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B73" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B74" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B75" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B76" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B77" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B78" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B79" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B80" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B81" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B82" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B83" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B84" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B85" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B86" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B87" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B88" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B89" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B90" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B91" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B92" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B93" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B94" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B95" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B96" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B97" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B98" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B99" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B100" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B101" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B102" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B103" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B104" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B105" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B106" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B107" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B108" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B109" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B110" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B111" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B112" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B113" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B114" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B115" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B116" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B117" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B118" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B119" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B120" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B121" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B122" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B123" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B124" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B125" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B126" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B127" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B128" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B129" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B130" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B131" t="e">
+        <f t="shared" ref="B131:B194" si="2">INDEX(N131:N133,MATCH(A131,M131:M133,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B132" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B133" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B134" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B135" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B136" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B137" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B138" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B139" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B140" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B141" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B142" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B143" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B144" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B145" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B146" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B147" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B148" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B149" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B150" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B151" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B152" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B153" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B154" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B155" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B156" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B157" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B158" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B159" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B160" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B161" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B162" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B163" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B164" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B165" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B166" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B167" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B168" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B169" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B170" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B171" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B172" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B173" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B174" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B175" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B176" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B177" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B178" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B179" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B180" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B181" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B182" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B183" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B184" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B185" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B186" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B187" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B188" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B189" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B190" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B191" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B192" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B193" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B194" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B195" t="e">
+        <f t="shared" ref="B195:B258" si="3">INDEX(N195:N197,MATCH(A195,M195:M197,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B196" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B197" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B198" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B199" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B200" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B201" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B202" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B203" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B204" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B205" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B206" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B207" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B208" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B209" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B210" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B211" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B212" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B213" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B214" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B215" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B216" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B217" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B218" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B219" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B220" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B221" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B222" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B223" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B224" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B225" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B226" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B227" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B228" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B229" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B230" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B231" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B232" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B233" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B234" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B235" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B236" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B237" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B238" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B239" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B240" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B241" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B242" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B243" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B244" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B245" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B246" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B247" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B248" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B249" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B250" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B251" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B252" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B253" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B254" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B255" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B256" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B257" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B258" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B259" t="e">
+        <f t="shared" ref="B259:B270" si="4">INDEX(N259:N261,MATCH(A259,M259:M261,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B260" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B261" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B262" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B263" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B264" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B265" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B266" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B267" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B268" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B269" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B270" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A258" xr:uid="{CB2DBE9F-816C-483F-B947-FE4D5CEC6FF8}">
+      <formula1>$M$2:$M$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CFCEE6-AB22-45FB-AFBC-217D5D42EF95}">
+  <dimension ref="A1:O200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="K176" sqref="K176"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="e">
+        <f>INDEX(N2:N4,MATCH(A2,M2:M4,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C2" t="e">
+        <f>INDEX(O2:O4,MATCH(B2,N2:N4,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="e">
+        <f t="shared" ref="B3:C3" si="0">INDEX(N3:N5,MATCH(A3,M3:M5,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C3" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B4" t="e">
+        <f t="shared" ref="B4:C4" si="1">INDEX(N4:N6,MATCH(A4,M4:M6,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C4" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B5" t="e">
+        <f t="shared" ref="B5:C5" si="2">INDEX(N5:N7,MATCH(A5,M5:M7,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B6" t="e">
+        <f t="shared" ref="B6:C6" si="3">INDEX(N6:N8,MATCH(A6,M6:M8,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C6" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B7" t="e">
+        <f t="shared" ref="B7:C7" si="4">INDEX(N7:N9,MATCH(A7,M7:M9,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B8" t="e">
+        <f t="shared" ref="B8:C8" si="5">INDEX(N8:N10,MATCH(A8,M8:M10,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C8" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B9" t="e">
+        <f t="shared" ref="B9:C9" si="6">INDEX(N9:N11,MATCH(A9,M9:M11,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C9" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B10" t="e">
+        <f t="shared" ref="B10:C10" si="7">INDEX(N10:N12,MATCH(A10,M10:M12,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C10" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B11" t="e">
+        <f t="shared" ref="B11:C11" si="8">INDEX(N11:N13,MATCH(A11,M11:M13,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C11" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B12" t="e">
+        <f t="shared" ref="B12:C12" si="9">INDEX(N12:N14,MATCH(A12,M12:M14,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C12" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B13" t="e">
+        <f t="shared" ref="B13:C13" si="10">INDEX(N13:N15,MATCH(A13,M13:M15,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C13" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B14" t="e">
+        <f t="shared" ref="B14:C14" si="11">INDEX(N14:N16,MATCH(A14,M14:M16,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C14" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B15" t="e">
+        <f t="shared" ref="B15:C15" si="12">INDEX(N15:N17,MATCH(A15,M15:M17,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B16" t="e">
+        <f t="shared" ref="B16:C16" si="13">INDEX(N16:N18,MATCH(A16,M16:M18,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C16" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" t="e">
+        <f t="shared" ref="B17:C17" si="14">INDEX(N17:N19,MATCH(A17,M17:M19,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="e">
+        <f t="shared" ref="B18:C18" si="15">INDEX(N18:N20,MATCH(A18,M18:M20,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" t="e">
+        <f t="shared" ref="B19:C19" si="16">INDEX(N19:N21,MATCH(A19,M19:M21,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C19" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" t="e">
+        <f t="shared" ref="B20:C20" si="17">INDEX(N20:N22,MATCH(A20,M20:M22,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" t="e">
+        <f t="shared" si="17"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" t="e">
+        <f t="shared" ref="B21:C21" si="18">INDEX(N21:N23,MATCH(A21,M21:M23,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C21" t="e">
+        <f t="shared" si="18"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" t="e">
+        <f t="shared" ref="B22:C22" si="19">INDEX(N22:N24,MATCH(A22,M22:M24,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C22" t="e">
+        <f t="shared" si="19"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" t="e">
+        <f t="shared" ref="B23:C23" si="20">INDEX(N23:N25,MATCH(A23,M23:M25,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C23" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" t="e">
+        <f t="shared" ref="B24:C24" si="21">INDEX(N24:N26,MATCH(A24,M24:M26,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="e">
+        <f t="shared" ref="B25:C25" si="22">INDEX(N25:N27,MATCH(A25,M25:M27,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" t="e">
+        <f t="shared" ref="B26:C26" si="23">INDEX(N26:N28,MATCH(A26,M26:M28,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C26" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" t="e">
+        <f t="shared" ref="B27:C27" si="24">INDEX(N27:N29,MATCH(A27,M27:M29,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C27" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" t="e">
+        <f t="shared" ref="B28:C28" si="25">INDEX(N28:N30,MATCH(A28,M28:M30,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C28" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" t="e">
+        <f t="shared" ref="B29:C29" si="26">INDEX(N29:N31,MATCH(A29,M29:M31,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C29" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" t="e">
+        <f t="shared" ref="B30:C30" si="27">INDEX(N30:N32,MATCH(A30,M30:M32,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C30" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" t="e">
+        <f t="shared" ref="B31:C31" si="28">INDEX(N31:N33,MATCH(A31,M31:M33,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C31" t="e">
+        <f t="shared" si="28"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" t="e">
+        <f t="shared" ref="B32:C32" si="29">INDEX(N32:N34,MATCH(A32,M32:M34,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C32" t="e">
+        <f t="shared" si="29"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" t="e">
+        <f t="shared" ref="B33:C33" si="30">INDEX(N33:N35,MATCH(A33,M33:M35,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C33" t="e">
+        <f t="shared" si="30"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" t="e">
+        <f t="shared" ref="B34:C34" si="31">INDEX(N34:N36,MATCH(A34,M34:M36,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C34" t="e">
+        <f t="shared" si="31"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" t="e">
+        <f t="shared" ref="B35:C35" si="32">INDEX(N35:N37,MATCH(A35,M35:M37,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C35" t="e">
+        <f t="shared" si="32"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" t="e">
+        <f t="shared" ref="B36:C36" si="33">INDEX(N36:N38,MATCH(A36,M36:M38,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C36" t="e">
+        <f t="shared" si="33"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" t="e">
+        <f t="shared" ref="B37:C37" si="34">INDEX(N37:N39,MATCH(A37,M37:M39,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C37" t="e">
+        <f t="shared" si="34"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" t="e">
+        <f t="shared" ref="B38:C38" si="35">INDEX(N38:N40,MATCH(A38,M38:M40,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C38" t="e">
+        <f t="shared" si="35"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" t="e">
+        <f t="shared" ref="B39:C39" si="36">INDEX(N39:N41,MATCH(A39,M39:M41,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C39" t="e">
+        <f t="shared" si="36"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" t="e">
+        <f t="shared" ref="B40:C40" si="37">INDEX(N40:N42,MATCH(A40,M40:M42,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" si="37"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" t="e">
+        <f t="shared" ref="B41:C41" si="38">INDEX(N41:N43,MATCH(A41,M41:M43,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" si="38"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" t="e">
+        <f t="shared" ref="B42:C42" si="39">INDEX(N42:N44,MATCH(A42,M42:M44,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C42" t="e">
+        <f t="shared" si="39"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B43" t="e">
+        <f t="shared" ref="B43:C43" si="40">INDEX(N43:N45,MATCH(A43,M43:M45,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C43" t="e">
+        <f t="shared" si="40"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B44" t="e">
+        <f t="shared" ref="B44:C44" si="41">INDEX(N44:N46,MATCH(A44,M44:M46,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C44" t="e">
+        <f t="shared" si="41"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B45" t="e">
+        <f t="shared" ref="B45:C45" si="42">INDEX(N45:N47,MATCH(A45,M45:M47,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C45" t="e">
+        <f t="shared" si="42"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B46" t="e">
+        <f t="shared" ref="B46:C46" si="43">INDEX(N46:N48,MATCH(A46,M46:M48,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C46" t="e">
+        <f t="shared" si="43"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B47" t="e">
+        <f t="shared" ref="B47:C47" si="44">INDEX(N47:N49,MATCH(A47,M47:M49,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C47" t="e">
+        <f t="shared" si="44"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B48" t="e">
+        <f t="shared" ref="B48:C48" si="45">INDEX(N48:N50,MATCH(A48,M48:M50,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C48" t="e">
+        <f t="shared" si="45"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B49" t="e">
+        <f t="shared" ref="B49:C49" si="46">INDEX(N49:N51,MATCH(A49,M49:M51,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C49" t="e">
+        <f t="shared" si="46"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B50" t="e">
+        <f t="shared" ref="B50:C50" si="47">INDEX(N50:N52,MATCH(A50,M50:M52,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C50" t="e">
+        <f t="shared" si="47"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B51" t="e">
+        <f t="shared" ref="B51:C51" si="48">INDEX(N51:N53,MATCH(A51,M51:M53,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C51" t="e">
+        <f t="shared" si="48"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B52" t="e">
+        <f t="shared" ref="B52:C52" si="49">INDEX(N52:N54,MATCH(A52,M52:M54,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C52" t="e">
+        <f t="shared" si="49"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B53" t="e">
+        <f t="shared" ref="B53:C53" si="50">INDEX(N53:N55,MATCH(A53,M53:M55,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C53" t="e">
+        <f t="shared" si="50"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B54" t="e">
+        <f t="shared" ref="B54:C54" si="51">INDEX(N54:N56,MATCH(A54,M54:M56,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C54" t="e">
+        <f t="shared" si="51"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B55" t="e">
+        <f t="shared" ref="B55:C55" si="52">INDEX(N55:N57,MATCH(A55,M55:M57,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C55" t="e">
+        <f t="shared" si="52"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B56" t="e">
+        <f t="shared" ref="B56:C56" si="53">INDEX(N56:N58,MATCH(A56,M56:M58,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C56" t="e">
+        <f t="shared" si="53"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B57" t="e">
+        <f t="shared" ref="B57:C57" si="54">INDEX(N57:N59,MATCH(A57,M57:M59,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C57" t="e">
+        <f t="shared" si="54"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B58" t="e">
+        <f t="shared" ref="B58:C58" si="55">INDEX(N58:N60,MATCH(A58,M58:M60,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C58" t="e">
+        <f t="shared" si="55"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B59" t="e">
+        <f t="shared" ref="B59:C59" si="56">INDEX(N59:N61,MATCH(A59,M59:M61,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C59" t="e">
+        <f t="shared" si="56"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B60" t="e">
+        <f t="shared" ref="B60:C60" si="57">INDEX(N60:N62,MATCH(A60,M60:M62,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C60" t="e">
+        <f t="shared" si="57"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B61" t="e">
+        <f t="shared" ref="B61:C61" si="58">INDEX(N61:N63,MATCH(A61,M61:M63,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C61" t="e">
+        <f t="shared" si="58"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B62" t="e">
+        <f t="shared" ref="B62:C62" si="59">INDEX(N62:N64,MATCH(A62,M62:M64,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C62" t="e">
+        <f t="shared" si="59"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B63" t="e">
+        <f t="shared" ref="B63:C63" si="60">INDEX(N63:N65,MATCH(A63,M63:M65,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C63" t="e">
+        <f t="shared" si="60"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B64" t="e">
+        <f t="shared" ref="B64:C64" si="61">INDEX(N64:N66,MATCH(A64,M64:M66,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C64" t="e">
+        <f t="shared" si="61"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B65" t="e">
+        <f t="shared" ref="B65:C65" si="62">INDEX(N65:N67,MATCH(A65,M65:M67,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C65" t="e">
+        <f t="shared" si="62"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B66" t="e">
+        <f t="shared" ref="B66:C66" si="63">INDEX(N66:N68,MATCH(A66,M66:M68,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C66" t="e">
+        <f t="shared" si="63"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B67" t="e">
+        <f t="shared" ref="B67:C67" si="64">INDEX(N67:N69,MATCH(A67,M67:M69,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C67" t="e">
+        <f t="shared" si="64"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B68" t="e">
+        <f t="shared" ref="B68:C68" si="65">INDEX(N68:N70,MATCH(A68,M68:M70,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C68" t="e">
+        <f t="shared" si="65"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B69" t="e">
+        <f t="shared" ref="B69:C69" si="66">INDEX(N69:N71,MATCH(A69,M69:M71,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C69" t="e">
+        <f t="shared" si="66"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B70" t="e">
+        <f t="shared" ref="B70:C70" si="67">INDEX(N70:N72,MATCH(A70,M70:M72,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C70" t="e">
+        <f t="shared" si="67"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B71" t="e">
+        <f t="shared" ref="B71:C71" si="68">INDEX(N71:N73,MATCH(A71,M71:M73,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C71" t="e">
+        <f t="shared" si="68"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B72" t="e">
+        <f t="shared" ref="B72:C72" si="69">INDEX(N72:N74,MATCH(A72,M72:M74,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C72" t="e">
+        <f t="shared" si="69"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B73" t="e">
+        <f t="shared" ref="B73:C73" si="70">INDEX(N73:N75,MATCH(A73,M73:M75,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C73" t="e">
+        <f t="shared" si="70"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B74" t="e">
+        <f t="shared" ref="B74:C74" si="71">INDEX(N74:N76,MATCH(A74,M74:M76,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C74" t="e">
+        <f t="shared" si="71"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B75" t="e">
+        <f t="shared" ref="B75:C75" si="72">INDEX(N75:N77,MATCH(A75,M75:M77,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C75" t="e">
+        <f t="shared" si="72"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B76" t="e">
+        <f t="shared" ref="B76:C76" si="73">INDEX(N76:N78,MATCH(A76,M76:M78,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C76" t="e">
+        <f t="shared" si="73"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B77" t="e">
+        <f t="shared" ref="B77:C77" si="74">INDEX(N77:N79,MATCH(A77,M77:M79,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C77" t="e">
+        <f t="shared" si="74"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B78" t="e">
+        <f t="shared" ref="B78:C78" si="75">INDEX(N78:N80,MATCH(A78,M78:M80,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C78" t="e">
+        <f t="shared" si="75"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B79" t="e">
+        <f t="shared" ref="B79:C79" si="76">INDEX(N79:N81,MATCH(A79,M79:M81,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C79" t="e">
+        <f t="shared" si="76"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B80" t="e">
+        <f t="shared" ref="B80:C80" si="77">INDEX(N80:N82,MATCH(A80,M80:M82,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C80" t="e">
+        <f t="shared" si="77"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B81" t="e">
+        <f t="shared" ref="B81:C81" si="78">INDEX(N81:N83,MATCH(A81,M81:M83,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C81" t="e">
+        <f t="shared" si="78"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B82" t="e">
+        <f t="shared" ref="B82:C82" si="79">INDEX(N82:N84,MATCH(A82,M82:M84,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C82" t="e">
+        <f t="shared" si="79"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B83" t="e">
+        <f t="shared" ref="B83:C83" si="80">INDEX(N83:N85,MATCH(A83,M83:M85,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C83" t="e">
+        <f t="shared" si="80"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B84" t="e">
+        <f t="shared" ref="B84:C84" si="81">INDEX(N84:N86,MATCH(A84,M84:M86,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C84" t="e">
+        <f t="shared" si="81"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B85" t="e">
+        <f t="shared" ref="B85:C85" si="82">INDEX(N85:N87,MATCH(A85,M85:M87,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C85" t="e">
+        <f t="shared" si="82"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B86" t="e">
+        <f t="shared" ref="B86:C86" si="83">INDEX(N86:N88,MATCH(A86,M86:M88,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C86" t="e">
+        <f t="shared" si="83"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B87" t="e">
+        <f t="shared" ref="B87:C87" si="84">INDEX(N87:N89,MATCH(A87,M87:M89,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C87" t="e">
+        <f t="shared" si="84"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B88" t="e">
+        <f t="shared" ref="B88:C88" si="85">INDEX(N88:N90,MATCH(A88,M88:M90,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C88" t="e">
+        <f t="shared" si="85"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B89" t="e">
+        <f t="shared" ref="B89:C89" si="86">INDEX(N89:N91,MATCH(A89,M89:M91,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C89" t="e">
+        <f t="shared" si="86"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B90" t="e">
+        <f t="shared" ref="B90:C90" si="87">INDEX(N90:N92,MATCH(A90,M90:M92,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C90" t="e">
+        <f t="shared" si="87"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B91" t="e">
+        <f t="shared" ref="B91:C91" si="88">INDEX(N91:N93,MATCH(A91,M91:M93,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C91" t="e">
+        <f t="shared" si="88"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B92" t="e">
+        <f t="shared" ref="B92:C92" si="89">INDEX(N92:N94,MATCH(A92,M92:M94,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C92" t="e">
+        <f t="shared" si="89"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B93" t="e">
+        <f t="shared" ref="B93:C93" si="90">INDEX(N93:N95,MATCH(A93,M93:M95,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C93" t="e">
+        <f t="shared" si="90"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B94" t="e">
+        <f t="shared" ref="B94:C94" si="91">INDEX(N94:N96,MATCH(A94,M94:M96,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C94" t="e">
+        <f t="shared" si="91"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B95" t="e">
+        <f t="shared" ref="B95:C95" si="92">INDEX(N95:N97,MATCH(A95,M95:M97,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C95" t="e">
+        <f t="shared" si="92"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B96" t="e">
+        <f t="shared" ref="B96:C96" si="93">INDEX(N96:N98,MATCH(A96,M96:M98,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C96" t="e">
+        <f t="shared" si="93"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B97" t="e">
+        <f t="shared" ref="B97:C97" si="94">INDEX(N97:N99,MATCH(A97,M97:M99,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C97" t="e">
+        <f t="shared" si="94"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B98" t="e">
+        <f t="shared" ref="B98:C98" si="95">INDEX(N98:N100,MATCH(A98,M98:M100,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C98" t="e">
+        <f t="shared" si="95"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B99" t="e">
+        <f t="shared" ref="B99:C99" si="96">INDEX(N99:N101,MATCH(A99,M99:M101,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C99" t="e">
+        <f t="shared" si="96"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B100" t="e">
+        <f t="shared" ref="B100:C100" si="97">INDEX(N100:N102,MATCH(A100,M100:M102,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C100" t="e">
+        <f t="shared" si="97"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B101" t="e">
+        <f t="shared" ref="B101:C101" si="98">INDEX(N101:N103,MATCH(A101,M101:M103,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C101" t="e">
+        <f t="shared" si="98"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B102" t="e">
+        <f t="shared" ref="B102:C102" si="99">INDEX(N102:N104,MATCH(A102,M102:M104,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C102" t="e">
+        <f t="shared" si="99"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B103" t="e">
+        <f t="shared" ref="B103:C103" si="100">INDEX(N103:N105,MATCH(A103,M103:M105,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C103" t="e">
+        <f t="shared" si="100"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B104" t="e">
+        <f t="shared" ref="B104:C104" si="101">INDEX(N104:N106,MATCH(A104,M104:M106,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C104" t="e">
+        <f t="shared" si="101"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B105" t="e">
+        <f t="shared" ref="B105:C105" si="102">INDEX(N105:N107,MATCH(A105,M105:M107,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C105" t="e">
+        <f t="shared" si="102"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B106" t="e">
+        <f t="shared" ref="B106:C106" si="103">INDEX(N106:N108,MATCH(A106,M106:M108,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C106" t="e">
+        <f t="shared" si="103"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B107" t="e">
+        <f t="shared" ref="B107:C107" si="104">INDEX(N107:N109,MATCH(A107,M107:M109,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C107" t="e">
+        <f t="shared" si="104"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B108" t="e">
+        <f t="shared" ref="B108:C108" si="105">INDEX(N108:N110,MATCH(A108,M108:M110,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C108" t="e">
+        <f t="shared" si="105"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B109" t="e">
+        <f t="shared" ref="B109:C109" si="106">INDEX(N109:N111,MATCH(A109,M109:M111,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C109" t="e">
+        <f t="shared" si="106"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B110" t="e">
+        <f t="shared" ref="B110:C110" si="107">INDEX(N110:N112,MATCH(A110,M110:M112,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C110" t="e">
+        <f t="shared" si="107"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B111" t="e">
+        <f t="shared" ref="B111:C111" si="108">INDEX(N111:N113,MATCH(A111,M111:M113,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C111" t="e">
+        <f t="shared" si="108"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B112" t="e">
+        <f t="shared" ref="B112:C112" si="109">INDEX(N112:N114,MATCH(A112,M112:M114,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C112" t="e">
+        <f t="shared" si="109"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B113" t="e">
+        <f t="shared" ref="B113:C113" si="110">INDEX(N113:N115,MATCH(A113,M113:M115,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C113" t="e">
+        <f t="shared" si="110"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B114" t="e">
+        <f t="shared" ref="B114:C114" si="111">INDEX(N114:N116,MATCH(A114,M114:M116,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C114" t="e">
+        <f t="shared" si="111"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B115" t="e">
+        <f t="shared" ref="B115:C115" si="112">INDEX(N115:N117,MATCH(A115,M115:M117,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C115" t="e">
+        <f t="shared" si="112"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B116" t="e">
+        <f t="shared" ref="B116:C116" si="113">INDEX(N116:N118,MATCH(A116,M116:M118,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C116" t="e">
+        <f t="shared" si="113"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B117" t="e">
+        <f t="shared" ref="B117:C117" si="114">INDEX(N117:N119,MATCH(A117,M117:M119,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C117" t="e">
+        <f t="shared" si="114"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B118" t="e">
+        <f t="shared" ref="B118:C118" si="115">INDEX(N118:N120,MATCH(A118,M118:M120,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C118" t="e">
+        <f t="shared" si="115"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B119" t="e">
+        <f t="shared" ref="B119:C119" si="116">INDEX(N119:N121,MATCH(A119,M119:M121,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C119" t="e">
+        <f t="shared" si="116"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B120" t="e">
+        <f t="shared" ref="B120:C120" si="117">INDEX(N120:N122,MATCH(A120,M120:M122,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C120" t="e">
+        <f t="shared" si="117"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B121" t="e">
+        <f t="shared" ref="B121:C121" si="118">INDEX(N121:N123,MATCH(A121,M121:M123,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C121" t="e">
+        <f t="shared" si="118"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B122" t="e">
+        <f t="shared" ref="B122:C122" si="119">INDEX(N122:N124,MATCH(A122,M122:M124,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C122" t="e">
+        <f t="shared" si="119"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B123" t="e">
+        <f t="shared" ref="B123:C123" si="120">INDEX(N123:N125,MATCH(A123,M123:M125,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C123" t="e">
+        <f t="shared" si="120"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B124" t="e">
+        <f t="shared" ref="B124:C124" si="121">INDEX(N124:N126,MATCH(A124,M124:M126,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C124" t="e">
+        <f t="shared" si="121"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B125" t="e">
+        <f t="shared" ref="B125:C125" si="122">INDEX(N125:N127,MATCH(A125,M125:M127,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C125" t="e">
+        <f t="shared" si="122"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B126" t="e">
+        <f t="shared" ref="B126:C126" si="123">INDEX(N126:N128,MATCH(A126,M126:M128,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C126" t="e">
+        <f t="shared" si="123"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B127" t="e">
+        <f t="shared" ref="B127:C127" si="124">INDEX(N127:N129,MATCH(A127,M127:M129,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C127" t="e">
+        <f t="shared" si="124"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B128" t="e">
+        <f t="shared" ref="B128:C128" si="125">INDEX(N128:N130,MATCH(A128,M128:M130,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C128" t="e">
+        <f t="shared" si="125"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B129" t="e">
+        <f t="shared" ref="B129:C129" si="126">INDEX(N129:N131,MATCH(A129,M129:M131,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C129" t="e">
+        <f t="shared" si="126"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B130" t="e">
+        <f t="shared" ref="B130:C130" si="127">INDEX(N130:N132,MATCH(A130,M130:M132,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C130" t="e">
+        <f t="shared" si="127"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B131" t="e">
+        <f t="shared" ref="B131:C131" si="128">INDEX(N131:N133,MATCH(A131,M131:M133,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C131" t="e">
+        <f t="shared" si="128"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B132" t="e">
+        <f t="shared" ref="B132:C132" si="129">INDEX(N132:N134,MATCH(A132,M132:M134,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C132" t="e">
+        <f t="shared" si="129"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B133" t="e">
+        <f t="shared" ref="B133:C133" si="130">INDEX(N133:N135,MATCH(A133,M133:M135,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C133" t="e">
+        <f t="shared" si="130"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B134" t="e">
+        <f t="shared" ref="B134:C134" si="131">INDEX(N134:N136,MATCH(A134,M134:M136,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C134" t="e">
+        <f t="shared" si="131"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B135" t="e">
+        <f t="shared" ref="B135:C135" si="132">INDEX(N135:N137,MATCH(A135,M135:M137,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C135" t="e">
+        <f t="shared" si="132"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B136" t="e">
+        <f t="shared" ref="B136:C136" si="133">INDEX(N136:N138,MATCH(A136,M136:M138,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C136" t="e">
+        <f t="shared" si="133"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B137" t="e">
+        <f t="shared" ref="B137:C137" si="134">INDEX(N137:N139,MATCH(A137,M137:M139,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C137" t="e">
+        <f t="shared" si="134"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B138" t="e">
+        <f t="shared" ref="B138:C138" si="135">INDEX(N138:N140,MATCH(A138,M138:M140,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C138" t="e">
+        <f t="shared" si="135"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B139" t="e">
+        <f t="shared" ref="B139:C139" si="136">INDEX(N139:N141,MATCH(A139,M139:M141,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C139" t="e">
+        <f t="shared" si="136"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B140" t="e">
+        <f t="shared" ref="B140:C140" si="137">INDEX(N140:N142,MATCH(A140,M140:M142,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C140" t="e">
+        <f t="shared" si="137"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B141" t="e">
+        <f t="shared" ref="B141:C141" si="138">INDEX(N141:N143,MATCH(A141,M141:M143,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C141" t="e">
+        <f t="shared" si="138"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B142" t="e">
+        <f t="shared" ref="B142:C142" si="139">INDEX(N142:N144,MATCH(A142,M142:M144,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C142" t="e">
+        <f t="shared" si="139"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B143" t="e">
+        <f t="shared" ref="B143:C143" si="140">INDEX(N143:N145,MATCH(A143,M143:M145,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C143" t="e">
+        <f t="shared" si="140"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B144" t="e">
+        <f t="shared" ref="B144:C144" si="141">INDEX(N144:N146,MATCH(A144,M144:M146,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C144" t="e">
+        <f t="shared" si="141"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B145" t="e">
+        <f t="shared" ref="B145:C145" si="142">INDEX(N145:N147,MATCH(A145,M145:M147,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C145" t="e">
+        <f t="shared" si="142"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B146" t="e">
+        <f t="shared" ref="B146:C146" si="143">INDEX(N146:N148,MATCH(A146,M146:M148,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C146" t="e">
+        <f t="shared" si="143"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B147" t="e">
+        <f t="shared" ref="B147:C147" si="144">INDEX(N147:N149,MATCH(A147,M147:M149,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C147" t="e">
+        <f t="shared" si="144"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B148" t="e">
+        <f t="shared" ref="B148:C148" si="145">INDEX(N148:N150,MATCH(A148,M148:M150,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C148" t="e">
+        <f t="shared" si="145"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B149" t="e">
+        <f t="shared" ref="B149:C149" si="146">INDEX(N149:N151,MATCH(A149,M149:M151,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C149" t="e">
+        <f t="shared" si="146"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B150" t="e">
+        <f t="shared" ref="B150:C150" si="147">INDEX(N150:N152,MATCH(A150,M150:M152,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C150" t="e">
+        <f t="shared" si="147"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B151" t="e">
+        <f t="shared" ref="B151:C151" si="148">INDEX(N151:N153,MATCH(A151,M151:M153,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C151" t="e">
+        <f t="shared" si="148"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B152" t="e">
+        <f t="shared" ref="B152:C152" si="149">INDEX(N152:N154,MATCH(A152,M152:M154,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C152" t="e">
+        <f t="shared" si="149"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B153" t="e">
+        <f t="shared" ref="B153:C153" si="150">INDEX(N153:N155,MATCH(A153,M153:M155,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C153" t="e">
+        <f t="shared" si="150"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B154" t="e">
+        <f t="shared" ref="B154:C154" si="151">INDEX(N154:N156,MATCH(A154,M154:M156,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C154" t="e">
+        <f t="shared" si="151"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B155" t="e">
+        <f t="shared" ref="B155:C155" si="152">INDEX(N155:N157,MATCH(A155,M155:M157,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C155" t="e">
+        <f t="shared" si="152"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B156" t="e">
+        <f t="shared" ref="B156:C156" si="153">INDEX(N156:N158,MATCH(A156,M156:M158,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C156" t="e">
+        <f t="shared" si="153"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B157" t="e">
+        <f t="shared" ref="B157:C157" si="154">INDEX(N157:N159,MATCH(A157,M157:M159,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C157" t="e">
+        <f t="shared" si="154"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B158" t="e">
+        <f t="shared" ref="B158:C158" si="155">INDEX(N158:N160,MATCH(A158,M158:M160,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C158" t="e">
+        <f t="shared" si="155"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B159" t="e">
+        <f t="shared" ref="B159:C159" si="156">INDEX(N159:N161,MATCH(A159,M159:M161,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C159" t="e">
+        <f t="shared" si="156"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B160" t="e">
+        <f t="shared" ref="B160:C160" si="157">INDEX(N160:N162,MATCH(A160,M160:M162,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C160" t="e">
+        <f t="shared" si="157"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B161" t="e">
+        <f t="shared" ref="B161:C161" si="158">INDEX(N161:N163,MATCH(A161,M161:M163,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C161" t="e">
+        <f t="shared" si="158"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B162" t="e">
+        <f t="shared" ref="B162:C162" si="159">INDEX(N162:N164,MATCH(A162,M162:M164,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C162" t="e">
+        <f t="shared" si="159"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B163" t="e">
+        <f t="shared" ref="B163:C163" si="160">INDEX(N163:N165,MATCH(A163,M163:M165,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C163" t="e">
+        <f t="shared" si="160"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B164" t="e">
+        <f t="shared" ref="B164:C164" si="161">INDEX(N164:N166,MATCH(A164,M164:M166,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C164" t="e">
+        <f t="shared" si="161"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B165" t="e">
+        <f t="shared" ref="B165:C165" si="162">INDEX(N165:N167,MATCH(A165,M165:M167,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C165" t="e">
+        <f t="shared" si="162"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B166" t="e">
+        <f t="shared" ref="B166:C166" si="163">INDEX(N166:N168,MATCH(A166,M166:M168,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C166" t="e">
+        <f t="shared" si="163"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B167" t="e">
+        <f t="shared" ref="B167:C167" si="164">INDEX(N167:N169,MATCH(A167,M167:M169,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C167" t="e">
+        <f t="shared" si="164"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B168" t="e">
+        <f t="shared" ref="B168:C168" si="165">INDEX(N168:N170,MATCH(A168,M168:M170,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C168" t="e">
+        <f t="shared" si="165"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B169" t="e">
+        <f t="shared" ref="B169:C169" si="166">INDEX(N169:N171,MATCH(A169,M169:M171,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C169" t="e">
+        <f t="shared" si="166"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B170" t="e">
+        <f t="shared" ref="B170:C170" si="167">INDEX(N170:N172,MATCH(A170,M170:M172,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C170" t="e">
+        <f t="shared" si="167"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B171" t="e">
+        <f t="shared" ref="B171:C171" si="168">INDEX(N171:N173,MATCH(A171,M171:M173,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C171" t="e">
+        <f t="shared" si="168"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B172" t="e">
+        <f t="shared" ref="B172:C172" si="169">INDEX(N172:N174,MATCH(A172,M172:M174,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C172" t="e">
+        <f t="shared" si="169"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B173" t="e">
+        <f t="shared" ref="B173:C173" si="170">INDEX(N173:N175,MATCH(A173,M173:M175,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C173" t="e">
+        <f t="shared" si="170"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B174" t="e">
+        <f t="shared" ref="B174:C174" si="171">INDEX(N174:N176,MATCH(A174,M174:M176,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C174" t="e">
+        <f t="shared" si="171"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B175" t="e">
+        <f t="shared" ref="B175:C175" si="172">INDEX(N175:N177,MATCH(A175,M175:M177,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C175" t="e">
+        <f t="shared" si="172"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B176" t="e">
+        <f t="shared" ref="B176:C176" si="173">INDEX(N176:N178,MATCH(A176,M176:M178,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C176" t="e">
+        <f t="shared" si="173"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B177" t="e">
+        <f t="shared" ref="B177:C177" si="174">INDEX(N177:N179,MATCH(A177,M177:M179,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C177" t="e">
+        <f t="shared" si="174"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B178" t="e">
+        <f t="shared" ref="B178:C178" si="175">INDEX(N178:N180,MATCH(A178,M178:M180,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C178" t="e">
+        <f t="shared" si="175"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B179" t="e">
+        <f t="shared" ref="B179:C179" si="176">INDEX(N179:N181,MATCH(A179,M179:M181,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C179" t="e">
+        <f t="shared" si="176"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B180" t="e">
+        <f t="shared" ref="B180:C180" si="177">INDEX(N180:N182,MATCH(A180,M180:M182,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C180" t="e">
+        <f t="shared" si="177"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B181" t="e">
+        <f t="shared" ref="B181:C181" si="178">INDEX(N181:N183,MATCH(A181,M181:M183,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C181" t="e">
+        <f t="shared" si="178"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B182" t="e">
+        <f t="shared" ref="B182:C182" si="179">INDEX(N182:N184,MATCH(A182,M182:M184,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C182" t="e">
+        <f t="shared" si="179"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B183" t="e">
+        <f t="shared" ref="B183:C183" si="180">INDEX(N183:N185,MATCH(A183,M183:M185,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C183" t="e">
+        <f t="shared" si="180"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B184" t="e">
+        <f t="shared" ref="B184:C184" si="181">INDEX(N184:N186,MATCH(A184,M184:M186,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C184" t="e">
+        <f t="shared" si="181"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B185" t="e">
+        <f t="shared" ref="B185:C185" si="182">INDEX(N185:N187,MATCH(A185,M185:M187,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C185" t="e">
+        <f t="shared" si="182"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B186" t="e">
+        <f t="shared" ref="B186:C186" si="183">INDEX(N186:N188,MATCH(A186,M186:M188,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C186" t="e">
+        <f t="shared" si="183"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B187" t="e">
+        <f t="shared" ref="B187:C187" si="184">INDEX(N187:N189,MATCH(A187,M187:M189,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C187" t="e">
+        <f t="shared" si="184"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B188" t="e">
+        <f t="shared" ref="B188:C188" si="185">INDEX(N188:N190,MATCH(A188,M188:M190,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C188" t="e">
+        <f t="shared" si="185"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B189" t="e">
+        <f t="shared" ref="B189:C189" si="186">INDEX(N189:N191,MATCH(A189,M189:M191,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C189" t="e">
+        <f t="shared" si="186"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B190" t="e">
+        <f t="shared" ref="B190:C190" si="187">INDEX(N190:N192,MATCH(A190,M190:M192,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C190" t="e">
+        <f t="shared" si="187"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B191" t="e">
+        <f t="shared" ref="B191:C191" si="188">INDEX(N191:N193,MATCH(A191,M191:M193,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C191" t="e">
+        <f t="shared" si="188"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B192" t="e">
+        <f t="shared" ref="B192:C192" si="189">INDEX(N192:N194,MATCH(A192,M192:M194,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C192" t="e">
+        <f t="shared" si="189"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B193" t="e">
+        <f t="shared" ref="B193:C193" si="190">INDEX(N193:N195,MATCH(A193,M193:M195,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C193" t="e">
+        <f t="shared" si="190"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B194" t="e">
+        <f t="shared" ref="B194:C194" si="191">INDEX(N194:N196,MATCH(A194,M194:M196,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C194" t="e">
+        <f t="shared" si="191"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B195" t="e">
+        <f t="shared" ref="B195:C195" si="192">INDEX(N195:N197,MATCH(A195,M195:M197,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C195" t="e">
+        <f t="shared" si="192"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B196" t="e">
+        <f t="shared" ref="B196:C196" si="193">INDEX(N196:N198,MATCH(A196,M196:M198,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C196" t="e">
+        <f t="shared" si="193"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B197" t="e">
+        <f t="shared" ref="B197:C197" si="194">INDEX(N197:N199,MATCH(A197,M197:M199,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C197" t="e">
+        <f t="shared" si="194"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B198" t="e">
+        <f t="shared" ref="B198:C198" si="195">INDEX(N198:N200,MATCH(A198,M198:M200,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C198" t="e">
+        <f t="shared" si="195"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B199" t="e">
+        <f t="shared" ref="B199:C199" si="196">INDEX(N199:N201,MATCH(A199,M199:M201,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C199" t="e">
+        <f t="shared" si="196"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B200" t="e">
+        <f t="shared" ref="B200:C200" si="197">INDEX(N200:N202,MATCH(A200,M200:M202,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C200" t="e">
+        <f t="shared" si="197"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{C02AF19C-D94B-4B25-ACFD-F37073782004}">
+      <formula1>$M$2:$M$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>